--- a/output/altas_ass_mes_5.xlsx
+++ b/output/altas_ass_mes_5.xlsx
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2104,10 +2104,10 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2155,18 +2155,18 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2184,16 +2184,16 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2237,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -2343,7 +2343,7 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -2399,16 +2399,16 @@
         <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2420,25 +2420,25 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2576,10 +2576,10 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2588,25 +2588,25 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36">
         <v>0</v>
@@ -2635,10 +2635,10 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2656,16 +2656,16 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -2677,16 +2677,16 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19">
